--- a/samples/SA-عينة-مؤسسات-طبية-preview.xlsx
+++ b/samples/SA-عينة-مؤسسات-طبية-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="465">
   <si>
     <t>URL</t>
   </si>
@@ -40,616 +40,313 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D9%87+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cf8386452ac1:0xfbfa825ea95234a6!8m2!3d21.5164653!4d39.1916878!16s%2Fg%2F11smhc11f2!19sChIJwSpFhoPPwxURpjRSqV6C-vs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Vil%C3%B2n+Clinic+%7C+%DA%A4%D9%8A%D9%84%D9%88%D9%86+%D9%83%D9%84%D9%8A%D9%86%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2ee327ede9b1c7:0x63a9311fa421c32b!8m2!3d24.7886295!4d46.6176396!16s%2Fg%2F11vpqslv2b!19sChIJx7Hp7SfjLj4RK8MhpB8xqWM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AF%D9%88%D8%B1%D8%A7-+%D8%A7%D9%84%D8%B1%D8%A8%D9%8A%D8%B9+-+Dora+Clinic%E2%80%AD/data=!4m7!3m6!1s0x3e2ee36228d733c1:0xc83da5e27680dd51!8m2!3d24.787761!4d46.659019!16s%2Fg%2F11v4mz9jtt!19sChIJwTPXKGLjLj4RUd2AduKlPcg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/LUXURY+BEAUTY+Clinic+%D9%84%D8%A7%D9%83%D8%AC%D8%B1%D9%8A+%D8%A8%D9%8A%D9%88%D8%AA%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d001e2a04cb:0x2ef649d48be29268!8m2!3d24.7088411!4d46.6655455!16s%2Fg%2F11vppc473l!19sChIJywQqHgAdLz4RaJLii9RJ9i4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AA%D8%AF%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D8%AC%D8%B1%D8%A7%D8%AD%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98eb82bbdb16b:0x40874d68021c207c!8m2!3d21.261043!4d40.4086335!16s%2Fg%2F11dxb1rt6r!19sChIJa7G9K7iO6RURfCAcAmhNh0A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A+%D8%A7%D9%84%D8%A3%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e9896c579e649d:0xb3425ca1b5ad1ee7!8m2!3d21.2878832!4d40.4184113!16s%2Fg%2F11vqzqskhj!19sChIJnWSeV2yJ6RUR5x6ttaFcQrM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85+%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e989f6fe25da1b:0x37bb4c68e9031a26!8m2!3d21.2832007!4d40.423981!16s%2Fg%2F11j0qhp4n7!19sChIJG9ol_vaJ6RURJhoD6WhMuzc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%B3%D9%88%D8%A7%D9%83+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98fa696c41f7d:0xac8df18e1297ad62!8m2!3d21.2656585!4d40.4211329!16s%2Fg%2F11rcy_14qz!19sChIJfR_ElqaP6RURYq2XEo7xjaw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%81%D9%8A%D8%B5%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98eb7c5836219:0x7991da19d3a1da7e!8m2!3d21.2627448!4d40.4100417!16s%2Fg%2F11dx9gfszy!19sChIJGWKDxbeO6RURftqh0xnakXk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D9%81+%D8%AD%D9%8A+%D9%86%D8%AE%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15e98f20e6dc7713:0xf5cd07c3751fba05!8m2!3d21.2613297!4d40.4309909!16s%2Fg%2F11h3mv_ynq!19sChIJE3fc5iCP6RURBbofdcMHzfU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%B8%D9%87%D8%B1%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e448b9d95db9:0xbcbe1cbdf32f0291!8m2!3d26.3501238!4d50.1328828!16s%2Fg%2F11cnqtwxhc!19sChIJuV3ZuUjkST4RkQIv870cvrw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D9%81%D8%A7%D8%B1%D8%A7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e67349dabddb:0x97e3043287bb5fa5!8m2!3d26.3298627!4d50.1621406!16s%2Fg%2F11fzfb968j!19sChIJ273aSXPmST4RpV-7hzIE45c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D9%88%D8%AD%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e719bf79c92b:0xf23a75df112abe3e!8m2!3d26.3231827!4d50.1637773!16s%2Fg%2F11r4x0p8f4!19sChIJK8l5vxnnST4RPr4qEd91OvI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D8%A7%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%AF%D9%88%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e501c53a77a5:0x4d887af14db21ae!8m2!3d26.3433271!4d50.1626274!16s%2Fg%2F11gsml_gzs!19sChIJpXc6xQHlST4RriHbFK-H2AQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AC%D9%8A+%D8%A3%D9%86+%D9%84%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88+%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bdbf4a28fbf2b9:0x6db2da091f1da3bb!8m2!3d24.4839248!4d39.5731353!16s%2Fg%2F11sjq4xhrv!19sChIJufL7KEq_vRURu6MdHwnasm0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A8%D9%8A%D9%8A%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%88%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D9%8A%D9%88%D9%85+%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D8%AF+%7C+Beat+Day+Surgery+%26+Medical+Center%E2%80%AD/data=!4m7!3m6!1s0x15bd9529310c18bf:0xf3001a718d94546f!8m2!3d24.4719791!4d39.6567455!16s%2Fg%2F11pq9c3qjf!19sChIJvxgMMSmVvRURb1SUjXEaAPM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AF+%D8%A7%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D8%B2%D9%84%D9%84%D9%89%23+%D8%AF%D8%A7%D8%A8%D9%88%D8%A7%D9%84%D9%81%D8%AA%D9%88%D8%AD+%D9%85%D8%B1%D8%A7%D8%AF%23+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D9%88%D8%A7%D9%84%D8%AE%D8%AA%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf001f50bed5:0xeff327bd4b61e9dc!8m2!3d24.4810985!4d39.5968965!16s%2Fg%2F11y36xzrrl!19sChIJ1b5QHwC_vRUR3OlhS70n8-8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AF%D9%8A%D8%B1%D9%85%D8%A7+%D9%82%D9%84%D9%88+%D8%A7%D9%84%D8%B7%D8%A8%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15bdc1aa3a8e386f:0x27186813144f5cc!8m2!3d24.4241715!4d39.5911022!16s%2Fg%2F11lczj_pn7!19sChIJbziOOqrBvRURzPVEMYGGcQI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D8%A7%D9%86%D8%A7+%D9%84%D8%A7%D9%8A%D9%81+%D8%B3%D8%AA%D8%A7%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bdbfb52460295f:0x28b5322aa402c3f7!8m2!3d24.4830798!4d39.6425543!16s%2Fg%2F11jzxm1hl1!19sChIJXylgJLW_vRUR98MCpCoytSg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%88+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B3%D8%A7%D9%84%D9%85+%D8%A8%D8%A7%D8%B5%D9%81%D8%A7%D8%B1+%D8%B9%D9%8A%D9%88%D9%86+%D9%88+%D9%84%D9%8A%D8%B2%D8%B1+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D9%88%D8%B1%D8%A9+-+Basaffar+Eye+%26+Laser+Center%E2%80%AD/data=!4m7!3m6!1s0x15bd95ede0ff63df:0xb4d5e78999fc35e!8m2!3d24.4333578!4d39.6553991!16s%2Fg%2F11h583ph5d!19sChIJ32P_4O2VvRURXsOfmXheTQs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%BA%D8%B3%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bd95423f8fa405:0xdd57dcb5e022db4f!8m2!3d24.4624227!4d39.6581666!16s%2Fg%2F11k585dhbw!19sChIJBaSPP0KVvRURT9si4LXcV90?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Golden+Clinic+%7C+%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdb94bd9b86a03:0x2d91237f006cedd9!8m2!3d24.5095226!4d39.5642609!16s%2Fg%2F11gcnjb6z8!19sChIJA2q42Uu5vRUR2e1sAH8jkS0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Oasis+Clinics/data=!4m7!3m6!1s0x15bd95738f590d2d:0x52aca0f0c2a33dd0!8m2!3d24.4395803!4d39.6624808!16s%2Fg%2F11fj3d2g6l!19sChIJLQ1Zj3OVvRUR0D2jwvCgrFI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+1%E2%80%AD/data=!4m7!3m6!1s0x15bdbf8323ce0b35:0xfe68529274ca4ee3!8m2!3d24.4400325!4d39.6122667!16s%2Fg%2F12lkdgp1d!19sChIJNQvOI4O_vRUR407KdJJSaP4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%B3%D9%88%D8%A7%D9%83+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+Almeswak+Dental+Clinics%E2%80%AD/data=!4m7!3m6!1s0x15bdb96573d3dedf:0x48c0fe3fa9b06773!8m2!3d24.4702547!4d39.5580447!16s%2Fg%2F11j2zw0cy8!19sChIJ397Tc2W5vRURc2ewqT_-wEg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%85%D8%AD%D9%85%D8%AF+%D8%A8%D9%8A%D8%A8%D8%B1%D8%B3+-+%D8%A3%D8%AE%D8%B5%D8%A7%D8%A6%D9%8A+%D8%A7%D9%84%D8%AA%D8%B1%D9%83%D9%8A%D8%A8%D8%A7%D8%AA+%D8%A7%D9%84%D8%AB%D8%A7%D8%A8%D8%AA%D8%A9+%D9%88%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf3754473e51:0x8bc890b7df52bb41!8m2!3d24.446459!4d39.6224674!16s%2Fg%2F11t5tybbjq!19sChIJUT5HVDe_vRURQbtS37eQyIs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AD%D9%8A%D8%A7%D9%87+%D8%A7%D9%84%D8%AC%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+beauty+life+clinic%E2%80%AD/data=!4m7!3m6!1s0x15bdbf16b7054295:0x23ec2b45eed5004e!8m2!3d24.4794665!4d39.6405239!16s%2Fg%2F11s3ddlcb2!19sChIJlUIFtxa_vRURTgDV7kUr7CM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A+%D8%A7%D9%84%D8%A3%D9%84%D9%85%D8%A7%D9%86%D9%8A+-+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D9%88%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdc6ffd615d827:0x34dc0674577621ee!8m2!3d24.417791!4d39.529605!16s%2Fg%2F1xnz2208!19sChIJJ9gV1v_GvRUR7iF2V3QG3DQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B9%D9%85%D8%A7%D8%B1+-+Ammar+Pharmacy%E2%80%AD/data=!4m7!3m6!1s0x15c1ffb15f51073f:0x2a0eacb9221b8377!8m2!3d21.4974644!4d39.9452915!16s%2Fg%2F11h7t6478l!19sChIJPwdRX7H_wRURd4MbIrmsDio?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%AC%D8%AF%D8%B9%D8%A7%D9%86%D9%89+%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c3c92ecdedbca1:0x253fe2a304021888!8m2!3d21.4476073!4d39.2014282!16s%2Fg%2F11f652pjj2!19sChIJobztzS7JwxURiBgCBKPiPyU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D9%86%D8%B5%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1572bbe61077433d:0x470bc6ddb94472ab!8m2!3d29.9641014!4d40.2110295!16s%2Fg%2F11c59qw6jg!19sChIJPUN3EOa7chURq3JEud3GC0c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B3%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e4a01f5a66c6e9f:0x5a201d9acf9472cc!8m2!3d26.5613553!4d50.0215291!16s%2Fg%2F11hdpqs995!19sChIJn25spvUBSj4RzHKUz5odIFo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D8%A7%D8%B1%D8%AC%D9%8A%D8%A9+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15bdbf9f063778a3:0x57d01a9722701c!8m2!3d24.4416199!4d39.639676!16s%2Fg%2F11j4jwdcdl!19sChIJo3g3Bp-_vRURHHAilxrQVwA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2eff7772bea2d7:0x98db6da5ea2fe033!8m2!3d24.8350395!4d46.8103167!16s%2Fg%2F11h0gm6fg6!19sChIJ16K-cnf_Lj4RM-Av6qVt25g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2%D8%A7%D8%B3%D8%A7%D8%B3+%D8%A7%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0986b5ee25ef:0x92cdba6532070b64!8m2!3d24.6034623!4d46.758204!16s%2Fg%2F11rw7n3w3f!19sChIJ7yXutYYJLz4RZAsHMmW6zZI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%A7%D9%85%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15feed65137a574d:0x96c83bff1aff3f49!8m2!3d17.4543276!4d44.1011311!16s%2Fg%2F11fqq0vx0z!19sChIJTVd6E2Xt_hURST__Gv87yJY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/New+home/data=!4m7!3m6!1s0x3e2f0183ac51dad9:0x7f031adf41f35cae!8m2!3d24.7753606!4d46.8054106!16s%2Fg%2F11vl8gbqf7!19sChIJ2dpRrIMBLz4RrlzzQd8aA38?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f117b318a34f5:0xb023456600e42109!8m2!3d24.5442178!4d46.6479795!16s%2Fg%2F11hy_q859l!19sChIJ9TSKMXsRLz4RCSHkAGZFI7A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D8%A7%D8%A8+%D8%AC%D8%A8%D8%B1%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bdbfabb16805d7:0xb735efd7f400ca1b!8m2!3d24.4678321!4d39.613445!16s%2Fg%2F11bztc9f9t!19sChIJ1wVosau_vRURG8oA9NfvNbc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/MODEVIA+Clinics+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D9%88%D8%AF%D9%8A%D9%81%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d34af2bb35f:0xf256323fedfaa6f2!8m2!3d24.6666934!4d46.6878523!16s%2Fg%2F11sds3d57t!19sChIJX7MrrzQdLz4R8qb67T8yVvI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ecbe6b531e7:0xfe43599633e7f897!8m2!3d24.6177415!4d46.5423011!16s%2Fg%2F11cs27whmr!19sChIJ5zG15sseLz4Rl_jnM5ZZQ_4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%BA%D8%A7%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2f1178f128ea5b:0x70701283a62b493d!8m2!3d24.5774648!4d46.6362126!16s%2Fg%2F11tdtgz11w!19sChIJW-oo8XgRLz4RPUkrpoMScHA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A7%D9%85%D9%84+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A+%D9%88%D8%A7%D9%84%D8%AA%D8%AE%D8%B3%D9%8A%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15e98d720eebc5a5:0xb17782a52d8c88f!8m2!3d21.2740627!4d40.3748678!16s%2Fg%2F11fph4d1pt!19sChIJpcXrDnKN6RURj8jYUip4Fws?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%84%D9%88%D8%B3%D9%88%D8%B1%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f02ca4dd5a835:0xac857cf26c7271b8!8m2!3d24.7226003!4d46.6736635!16s%2Fg%2F11fzf8fhrh!19sChIJNajVTcoCLz4RuHFybPJ8haw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D9%86+%D8%A7%D9%84%D9%85%D8%B3+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3cc2bd6ff263d:0x3e0c72c7df853e3f!8m2!3d21.4784714!4d39.2406163!16s%2Fg%2F11f730ylt1!19sChIJPSb_1ivMwxURPz6F38dyDD4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e350fb4a9938469:0x4ebb1ebd081b0d39!8m2!3d27.1306949!4d49.5683603!16s%2Fg%2F1ptxvlyrn!19sChIJaYSTqbQPNT4ROQ0bCL0eu04?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A7%D9%84%D9%88%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x1607f5c020f17ab3:0x7536e1514fbc6e98!8m2!3d16.983432!4d42.8235129!16s%2Fg%2F11k41849p3!19sChIJs3rxIMD1BxYRmG68T1HhNnU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AA%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49fb38e8418c95:0xcfa04514477db929!8m2!3d26.4528996!4d50.1060144!16s%2Fg%2F11g044_z_n!19sChIJlYxB6Dj7ST4RKbl9RxRFoM8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D8%B2%D9%85%D9%88+%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A7%D9%84%D9%82%D8%B5%D9%8A%D9%85+Cosmo+Doctor+9%E2%80%AD/data=!4m7!3m6!1s0x6a1fb9b8d8e4bb57:0x75dde56697d41c5!8m2!3d26.4115085!4d43.9319423!16s%2Fg%2F11vf3bmz7_!19sChIJV7vk2Li5H2oRxUF9aVbeXQc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%D8%B1%D9%82%D9%85+296%E2%80%AD/data=!4m7!3m6!1s0x3e2effab167b58cf:0x5f55e2eb9e27e052!8m2!3d24.8224347!4d46.7913239!16s%2Fg%2F11ckvknb7_!19sChIJz1h7Fqv_Lj4RUuAnnuviVV8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D8%AF%D8%B1+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35ff9c84cf5ba9:0xe34d95b365755414!8m2!3d26.555086!4d50.0064883!16s%2Fg%2F11cn9ly92s!19sChIJqVvPhJz_NT4RFFR1ZbOVTeM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B2%D9%8A%D8%A7%D9%86+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+Zayan+Dental+Clinics%E2%80%AD/data=!4m7!3m6!1s0x3e2f030e29dc32ed:0x5b28f18024c6727!8m2!3d24.7027376!4d46.6995595!16s%2Fg%2F11c0v3wgff!19sChIJ7TLcKQ4DLz4RJ2dMAhiPsgU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2+(+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+)+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0e50dee85e63:0x9b478326c2777755!8m2!3d24.5564963!4d46.7038218!16s%2Fg%2F11dxmp2780!19sChIJY17o3lAOLz4RVXd3wiaDR5s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%86%D8%A7%D8%B1%D8%B3%D9%8A%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e49fca8d8905181:0x815441e572b32eb4!8m2!3d26.4005014!4d50.0966237!16s%2Fg%2F11c6sr21y3!19sChIJgVGQ2Kj8ST4RtC6zcuVBVIE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%81%D9%8A%D9%81%D8%A7+%D8%AF%D9%86%D8%AA+%D9%84%D8%B7%D8%A8+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf17f36f51cf:0x1f4608fe36d065a7!8m2!3d24.4795625!4d39.5841875!16s%2Fg%2F11h8hj1m92!19sChIJz1Fv8xe_vRURp2XQNv4IRh8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D9%88%D9%81%D8%A7%D8%A1+%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B3%D9%86%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x157f597cf6a87797:0xac9b10bf0738aa78!8m2!3d26.3448548!4d43.972977!16s%2Fg%2F11fmh80wdz!19sChIJl3eo9nxZfxUReKo4B78Qm6w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+,+%D8%B7%D8%B1%D9%8A%D9%82+%D8%AF%D9%8A%D8%B1%D8%A7%D8%A8+_+%D9%81%D8%B1%D8%B9+%D8%A2%D8%B1%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f11d2faf74531:0xa92dbd063a5a5f7e!8m2!3d24.5407954!4d46.6623849!16s%2Fg%2F11thh9wsvc!19sChIJMUX3-tIRLz4Rfl9aOga9Lak?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A3%D8%AB%D9%8A%D8%B1+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15c21ce924fc12ff:0x9c369658ba248936!8m2!3d21.4739563!4d39.7917094!16s%2Fg%2F1q5bnhqmg!19sChIJ_xL8JOkcwhURNokkuliWNpw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AD%D9%83%D9%8A%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a44058bace7:0x70bbc5598d0d73d0!8m2!3d24.5958127!4d46.6179696!16s%2Fg%2F11cs16stg0!19sChIJ56yLBUQaLz4R0HMNjVnFu3A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dakeel+Clinic/data=!4m7!3m6!1s0x15a9ad71161d4b29:0x42897d0f3b194a8c!8m2!3d28.4043838!4d36.5685715!16s%2Fg%2F11gv280yy1!19sChIJKUsdFnGtqRURjEoZOw99iUI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Faris+Al+JAZIRAH+DENTAL+CLINIC/data=!4m7!3m6!1s0x3e2f1ed4955e7597:0xed7943a2d8690c94!8m2!3d24.6273449!4d46.5581341!16s%2Fg%2F11c1pbnyr6!19sChIJl3VeldQeLz4RlAxp2KJDee0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B5%D9%81%D8%A7+%D9%85%D9%83%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9(2)%E2%80%AD/data=!4m7!3m6!1s0x3e2f05aef5f31a27:0x4d166ee922dd22a3!8m2!3d24.638559!4d46.7161789!16s%2Fg%2F11f4v9hnqk!19sChIJJxrz9a4FLz4RoyLdIuluFk0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%B3%D9%84%D9%85%D9%89+%D8%A7%D9%84%D8%A8%D8%B1%D9%82%D8%A7%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f03ecb4e9a887:0x746b2e5b245443ef!8m2!3d24.6958787!4d46.7025923!16s%2Fg%2F11spvfsx5j!19sChIJh6jptOwDLz4R70NUJFsua3Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A8%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5f3785b9e07d:0xcb21b9eb92f78e65!8m2!3d26.3268626!4d44.025294!16s%2Fg%2F11fm9t3zgb!19sChIJfeC5hTdffxURZY73kuu5Ics?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D8%A7%D9%8A%D8%A9+%D9%85%D8%AD%D8%B1%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e2ee55c0dfdfe99:0xbd2099f5b4376441!8m2!3d24.8550944!4d46.6477526!16s%2Fg%2F11v42w86r6!19sChIJmf79DVzlLj4RQWQ3tPWZIL0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Alfa+Laboratories+%7C+%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%81%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f09b0c66044d3:0x896786cf41608192!8m2!3d24.5958712!4d46.7727275!16s%2Fg%2F11q9j151g9!19sChIJ00RgxrAJLz4RkoFgQc-GZ4k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f06b8e453cf83:0x74d21b1555c6772!8m2!3d24.6877128!4d46.7651939!16s%2Fg%2F1ydxc8gf7!19sChIJg89T5LgGLz4RcmdcVbEhTQc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D9%8A%D9%86%D8%A7%D8%AA+21%E2%80%AD/data=!4m7!3m6!1s0x157f5974518f5bb9:0x197a6fff1ddc2d61!8m2!3d26.394036!4d43.9696722!16s%2Fg%2F11j3y9xpdq!19sChIJuVuPUXRZfxURYS3cHf9vehk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D9%86%D9%81%D8%B3%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15f02939223f3d67:0x8a305fc42c2a0c78!8m2!3d19.966478!4d42.593286!16s%2Fg%2F11vdvh67lc!19sChIJZz0_Ijkp8BUReAwqLMRfMIo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%85+%D9%85%D8%AD%D9%85%D8%AF+%D9%84%D8%B5%D8%A8%D8%AE%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e254fde58cb15b9:0x3462718f4ee04293!8m2!3d24.1901509!4d47.2970086!16s%2Fg%2F11s57wnv2x!19sChIJuRXLWN5PJT4Rk0LgTo9xYjQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B1%D9%86%D9%8A%D9%85+%D9%84%D8%B7%D8%A8+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607f521d4db3413:0x166a4c9a92ba98dd!8m2!3d16.9617421!4d42.8276595!16s%2Fg%2F11n03xwwwx!19sChIJEzTb1CH1BxYR3Zi6kppMahY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/MDLab/data=!4m7!3m6!1s0x3e2f1d2c2259df27:0xfde9eade9f3711d3!8m2!3d24.7090704!4d46.6662097!16s%2Fg%2F11b66fty9n!19sChIJJ99ZIiwdLz4R0xE3n97q6f0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%D8%A9+%D9%84%D9%84%D8%B4%D8%A4%D9%88%D9%86+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A8%D9%85%D9%86%D8%B7%D9%82%D8%A9+%D8%B9%D8%B3%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e353630f674db3:0xbd05dd28e4ff7777!8m2!3d18.2024106!4d42.5238139!16s%2Fg%2F11b6nmcpzs!19sChIJs01nD2NT4xURd3f_5CjdBb0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%86%D9%88%D8%B1+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1513e199c7e0d4d7:0x7777e784cf8877f9!8m2!3d31.6778485!4d38.6744769!16s%2Fg%2F11jvlw9cxq!19sChIJ19Tgx5nhExUR-XeIz4Tnd3c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D8%B1%D8%AC%D9%84+%D8%8C+%D9%85%D8%B3%D8%A7%D9%84%D9%83+%D8%A8%D9%88%D9%84%D9%8A%D8%A9+%D9%88%D8%B6%D8%B9%D9%81+%D8%A7%D9%86%D8%AA%D8%B5%D8%A7%D8%A8+%D9%88+%D8%A7%D9%86%D8%AC%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e49fca9205fd4d3:0x26044779379b8da!8m2!3d26.4135335!4d50.0967535!16s%2Fg%2F1q5bmx7ts!19sChIJ09RfIKn8ST4R2rh5k3dEYAI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A8%D9%86%D8%AF%D8%B1+%D8%A7%D9%84%D8%B4%D9%87%D8%B1%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15c3dbe411fc07d3:0x4d02361c9f75bb83!8m2!3d21.5585354!4d39.1237942!16s%2Fg%2F11gnpj3vdf!19sChIJ0wf8EeTbwxURg7t1nxw2Ak0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%85%D9%82+%D8%A7%D9%84%D8%A8%D8%B3%D8%AA%D8%A7%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f543dcdf09f:0xa45c1d9eaf14d6d8!8m2!3d24.5885507!4d46.7109982!16s%2Fg%2F11sstwb25x!19sChIJn_DNPVQPLz4R2NYUr54dXKQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%85%D8%A8%D9%88%D9%86%D8%AF+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%89+%D8%A7%D9%84%D8%A7%D9%84%D9%85%D8%A7%D9%86%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15c3da5f933e47a9:0x64e4d31f68ff2804!8m2!3d21.5938257!4d39.1321781!16s%2Fg%2F11c2jyydgj!19sChIJqUc-k1_awxURBCj_aB_T5GQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%81%D9%84%D8%A7%D8%AD+%D8%AE%D8%A7%D9%84%D8%AF+%D8%A8%D9%86+%D8%B3%D8%B9%D9%8A%D8%AF+%D8%A7%D9%84%D9%87%D8%A7%D8%AC%D8%B1%D9%8A+%D9%84%D9%84%D8%A3%D8%AF%D9%88%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e3649fa958b2f47:0xed62efeb827c3176!8m2!3d25.9304296!4d49.6606722!16s%2Fg%2F11rp825k8f!19sChIJRy-LlfpJNj4RdjF8guvvYu0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%85%D8%AE%D8%B7%D8%B7+1%E2%80%AD/data=!4m7!3m6!1s0x15f02bdcb94aad33:0xa61be9b8a34d0095!8m2!3d20.0228586!4d42.6183622!16s%2Fg%2F11vdhgghq2!19sChIJM61Kudwr8BURlQBNo7jpG6Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AF%D8%A7%D9%86+(%D8%A7%D9%84%D9%86%D9%87%D8%AF%D9%8A)%E2%80%AD/data=!4m7!3m6!1s0x15c2055dd78b892d:0x96dde588085382e9!8m2!3d21.3612152!4d39.8354862!16s%2Fg%2F1pv5_1mzk!19sChIJLYmL110FwhUR6YJTCIjl3ZY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AD%D9%8A%D8%A7%D8%A9+%D8%A2%D9%85%D9%86%D8%A9+%D9%84%D9%84%D8%A5%D8%B1%D8%B4%D8%A7%D8%AF+%D8%A7%D9%84%D8%A3%D8%B3%D8%B1%D9%8A+%D9%88%D8%A7%D9%84%D9%86%D9%81%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c205273b354eb3:0xcfaf8bb191e8fcda!8m2!3d21.3620418!4d39.8741426!16s%2Fg%2F11sgkytnf8!19sChIJs041OycFwhUR2vzokbGLr88?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%A8%D9%83%D8%A7%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D9%87%D8%AC%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdc0bcb3837dcd:0xa6c027fea9805a0d!8m2!3d24.4301087!4d39.5855482!16s%2Fg%2F11cn6blnjs!19sChIJzX2Ds7zAvRURDVqAqf4nwKY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D9%82%D8%A7%D9%84%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+-+%D9%81%D8%B1%D8%B9+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbfdb13f64753:0xa1f2de4356c1fee0!8m2!3d24.4828401!4d39.5961872!16s%2Fg%2F11sgp0wl0g!19sChIJU0f2E9u_vRUR4P7BVkPe8qE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AD%D8%B1%D9%85%D9%8A%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B1%D9%88%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f01a3ccccb2b7:0xbf792b888861af4!8m2!3d24.7475767!4d46.772598!16s%2Fg%2F1hc5bs_kw!19sChIJt7LMzKMBLz4R9BqGiLiS9ws?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D9%86%D8%A7%D9%8A%D9%81%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e36011f03f00b31:0x912c81b770abd382!8m2!3d26.4790481!4d49.9929029!16s%2Fg%2F11kj82lfj1!19sChIJMQvwAx8BNj4RgtOrcLeBLJE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%AF%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D9%88%D8%A7%D8%B1%D8%A6+%D9%88%D8%A7%D9%84%D8%A7%D8%B2%D9%85%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15a9ae88a7ab7b59:0xcd6aa93ceaa9fee1!8m2!3d28.3964998!4d36.5120129!16s%2Fg%2F11gfjrlqkq!19sChIJWXurp4iuqRUR4f6p6jypas0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B2%D8%A7%D9%8A%D8%AF+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e379345f50b3281:0xe19915ebd7402f7!8m2!3d25.3761296!4d49.6808486!16s%2Fg%2F11bwzq0bpj!19sChIJgTIL9UWTNz4R9wJ0vV6RGQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D8%A7%D9%86%D8%B9+%D8%A8%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49fb446d79e407:0x2a785641af288a60!8m2!3d26.4126678!4d50.1155839!16s%2Fg%2F1tf5zrzl!19sChIJB-R5bUT7ST4RYIoor0FWeCo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%86%D8%A7+2+Almohanna+Pharmacy%E2%80%8E%E2%80%AD/data=!4m7!3m6!1s0x3e4a0084f0bf852b:0xf12af581f281af1f!8m2!3d26.5737415!4d50.0256269!16s%2Fg%2F11bxf7ddr3!19sChIJK4W_8IQASj4RH6-B8oH1KvE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A8%D9%84%D9%88%D8%AF%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d138f16e036b:0xe245bb3c89428a49!8m2!3d21.5967324!4d39.2152253!16s%2Fg%2F11cs22w2nt!19sChIJawNu8TjRwxURSYpCiTy7ReI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/al+yasmin+medical+center/data=!4m7!3m6!1s0x15c3d1444e601a0b:0x6e0ddd894355c5d8!8m2!3d21.4497837!4d39.3184659!16s%2Fg%2F11h7_nkz9w!19sChIJCxpgTkTRwxUR2MVVQ4ndDW4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+O%2B+19%E2%80%AD/data=!4m7!3m6!1s0x3e25474d009a624b:0x46c65ec185bace91!8m2!3d24.1119254!4d47.2894503!16s%2Fg%2F11j_189dz3!19sChIJS2KaAE1HJT4Rkc66hcFexkY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AC%D8%A7%D9%85%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49ef9a1ff47ee5:0x8f99e1eeb20337bd!8m2!3d26.3931042!4d50.1897082!16s%2Fg%2F11vc27qkvw!19sChIJ5X70H5rvST4RvTcDsu7hmY8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D8%B3%D9%83%D9%86%D9%8A%D8%A9+%D9%84%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%88%D8%AF+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156c11ab525ab9c3:0x6a0b7625f95013a6!8m2!3d30.9388171!4d41.0500437!16s%2Fg%2F11fmrk0t3_!19sChIJw7laUqsRbBURphNQ-SV2C2o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%BA%D8%B1%D9%86%D8%A7%D8%B7%D8%A9+%D9%84%D9%84%D8%AA%D8%BA%D8%B0%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98ee9279cc63b:0xb50277dfc6eb8164!8m2!3d21.2451165!4d40.4179517!16s%2Fg%2F11cs0fggb6!19sChIJO8acJ-mO6RURZIHrxt93ArU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84+%D9%84%D9%84%D9%85%D8%B3%D8%AA%D9%84%D8%B2%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1583b52c0c4faf4b:0x9fd1ec5ee9108b0e!8m2!3d25.8778382!4d43.4802784!16s%2Fg%2F11j07w7bky!19sChIJS69PDCy1gxURDosQ6V7s0Z8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mother+and+child+clinic+%D9%84%D9%82%D8%A7%D8%AD+%D9%83%D9%88%D9%81%D9%8A%D8%AF+%D9%A1%D9%A9+%D9%81%D8%A7%D9%8A%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3cf5fb330524b:0xee72a83a5525ff9d!8m2!3d21.5077659!4d39.222666!16s%2Fg%2F11nxrqfvhj!19sChIJS1Iws1_PwxURnf8lVTqocu4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D8%A7%D8%B1%D8%AC%D9%8A%D8%A9+-+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D9%81%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15bdb906a0e8b319:0x42158445e0434f20!8m2!3d24.4943438!4d39.5617333!16s%2Fg%2F11fd7lxzk1!19sChIJGbPooAa5vRURIE9D4EWEFUI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%5C+%D8%B4%D9%8A%D9%85%D8%A7%D8%A1+%D8%A3%D8%A8%D9%88%D8%A8%D9%83%D8%B1+%D9%85%D8%B1%D8%B2%D9%82+%D8%A3%D8%AD%D9%85%D8%AF+%D8%B7%D8%A8%D9%8A%D8%A8%D8%A9+%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D9%88%D8%A7%D9%84%D9%84%D9%8A%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e485aaecdcd68f:0x1c3a6af6b9fe79e2!8m2!3d18.4964183!4d42.0573799!16s%2Fg%2F11vspgt6qs!19sChIJj9bc7KqF5BUR4nn-ufZqOhw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%83%D9%88%D8%B2%D9%85%D9%88%D8%AF%D9%8A%D8%B1%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3d012a0d7f8ef:0x533f474930e8565d!8m2!3d21.5635569!4d39.1651033!16s%2Fg%2F11c54cvcp0!19sChIJ7_jXoBLQwxURXVboMElHP1M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>مجمع صفوة السعوديه الطبي</t>
-  </si>
-  <si>
-    <t>Vilòn Clinic | ڤيلون كلينيك</t>
-  </si>
-  <si>
-    <t>عيادات دورا- الربيع - Dora Clinic</t>
-  </si>
-  <si>
-    <t>LUXURY BEAUTY Clinic لاكجري بيوتي</t>
-  </si>
-  <si>
-    <t>مجمع تداوي الجراحي الطبي</t>
-  </si>
-  <si>
-    <t>مجمع المركز السعودي الأكاديمي الطبي العام</t>
-  </si>
-  <si>
-    <t>مستوصف السلام الوطني الطبي العام</t>
-  </si>
-  <si>
-    <t>عيادات المسواك الطبية</t>
-  </si>
-  <si>
-    <t>مجمع ابتسامة الفيصل الطبي</t>
-  </si>
-  <si>
-    <t>صفوة المهيدب لطب الاسنان الطائف حي نخب</t>
-  </si>
-  <si>
-    <t>مجمع ريادة الظهران الطبي</t>
-  </si>
-  <si>
-    <t>مستوصف الفارابي</t>
-  </si>
-  <si>
-    <t>مجمع الدوحة الطبي</t>
-  </si>
-  <si>
-    <t>مجمع عيادات رام الطبي الدوحة</t>
-  </si>
-  <si>
-    <t>عيادات جي أن للجلدية و التجميل</t>
-  </si>
-  <si>
-    <t>مركز بييت الطبي وجراحة اليوم الواحد | Beat Day Surgery &amp; Medical Center</t>
-  </si>
-  <si>
-    <t>مجمع د ابراهيم زللى# دابوالفتوح مراد# عيادة الجراحة والختان</t>
-  </si>
-  <si>
-    <t>مجمع ديرما قلو الطبى</t>
-  </si>
-  <si>
-    <t>جوانا لايف ستايل</t>
-  </si>
-  <si>
-    <t>مركز و عيادات دكتور سالم باصفار عيون و ليزر المدينة المنورة - Basaffar Eye &amp; Laser Center</t>
-  </si>
-  <si>
-    <t>عيادات غسن الطبية</t>
-  </si>
-  <si>
-    <t>Golden Clinic | مجمع العيادة الذهبية</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>مجمع صفوة السع...</t>
+  </si>
+  <si>
+    <t>Vilòn Clinic |...</t>
+  </si>
+  <si>
+    <t>عيادات دورا- ا...</t>
+  </si>
+  <si>
+    <t>LUXURY BEAUTY ...</t>
+  </si>
+  <si>
+    <t>مجمع تداوي الج...</t>
+  </si>
+  <si>
+    <t>مجمع المركز ال...</t>
+  </si>
+  <si>
+    <t>مستوصف السلام ...</t>
+  </si>
+  <si>
+    <t>عيادات المسواك...</t>
+  </si>
+  <si>
+    <t>مجمع ابتسامة ا...</t>
+  </si>
+  <si>
+    <t>صفوة المهيدب ل...</t>
+  </si>
+  <si>
+    <t>مجمع ريادة الظ...</t>
+  </si>
+  <si>
+    <t>مستوصف الفاراب...</t>
+  </si>
+  <si>
+    <t>مجمع الدوحة ال...</t>
+  </si>
+  <si>
+    <t>مجمع عيادات را...</t>
+  </si>
+  <si>
+    <t>عيادات جي أن ل...</t>
+  </si>
+  <si>
+    <t>مركز بييت الطب...</t>
+  </si>
+  <si>
+    <t>مجمع د ابراهيم...</t>
+  </si>
+  <si>
+    <t>مجمع ديرما قلو...</t>
+  </si>
+  <si>
+    <t>جوانا لايف ستا...</t>
+  </si>
+  <si>
+    <t>مركز و عيادات ...</t>
+  </si>
+  <si>
+    <t>عيادات غسن الط...</t>
+  </si>
+  <si>
+    <t>Golden Clinic ...</t>
   </si>
   <si>
     <t>Oasis Clinics</t>
   </si>
   <si>
-    <t>مجمع دار السلام الطبي العام 1</t>
-  </si>
-  <si>
-    <t>عيادات المسواك لطب الاسنان Almeswak Dental Clinics</t>
-  </si>
-  <si>
-    <t>دكتور محمد بيبرس - أخصائي التركيبات الثابتة وتجميل الأسنان</t>
-  </si>
-  <si>
-    <t>مجمع حياه الجمال الطبي beauty life clinic</t>
-  </si>
-  <si>
-    <t>المستشفى السعودي الألماني - المدينة المنورة</t>
-  </si>
-  <si>
-    <t>صيدلية عمار - Ammar Pharmacy</t>
-  </si>
-  <si>
-    <t>صيدلية مستشفى الجدعانى الجديد</t>
-  </si>
-  <si>
-    <t>مجمع كيان النصر الطبي</t>
+    <t>مجمع دار السلا...</t>
+  </si>
+  <si>
+    <t>دكتور محمد بيب...</t>
+  </si>
+  <si>
+    <t>مجمع حياه الجم...</t>
+  </si>
+  <si>
+    <t>المستشفى السعو...</t>
+  </si>
+  <si>
+    <t>صيدلية عمار - ...</t>
+  </si>
+  <si>
+    <t>صيدلية مستشفى ...</t>
+  </si>
+  <si>
+    <t>مجمع كيان النص...</t>
   </si>
   <si>
     <t>صيدلية مسك</t>
   </si>
   <si>
-    <t>العيادات الخارجية مستشفى المدينة العام</t>
-  </si>
-  <si>
-    <t>عيادات قولدن كير للأسنان والجلدية والليزر</t>
-  </si>
-  <si>
-    <t>مركزاساس العلاج الطبيعي</t>
-  </si>
-  <si>
-    <t>عيادة دار الامل البيطريه</t>
+    <t>العيادات الخار...</t>
+  </si>
+  <si>
+    <t>عيادات قولدن ك...</t>
+  </si>
+  <si>
+    <t>مركزاساس العلا...</t>
+  </si>
+  <si>
+    <t>عيادة دار الام...</t>
   </si>
   <si>
     <t>New home</t>
   </si>
   <si>
-    <t>رعاية الشفاء للعلاج الطبيعي</t>
-  </si>
-  <si>
-    <t>مركز صحي باب جبريل</t>
-  </si>
-  <si>
-    <t>MODEVIA Clinics عيادات موديفيا</t>
-  </si>
-  <si>
-    <t>مستوصف ركن الابتسامه</t>
+    <t>رعاية الشفاء ل...</t>
+  </si>
+  <si>
+    <t>مركز صحي باب ج...</t>
+  </si>
+  <si>
+    <t>MODEVIA Clinic...</t>
+  </si>
+  <si>
+    <t>مستوصف ركن الا...</t>
   </si>
   <si>
     <t>غاز</t>
   </si>
   <si>
-    <t>مركز الامل للعلاج الطبيعي والتخسيس</t>
-  </si>
-  <si>
-    <t>عيادات لوسورير</t>
-  </si>
-  <si>
-    <t>عين المس للنظارات</t>
-  </si>
-  <si>
-    <t>مغربي للبصريات</t>
-  </si>
-  <si>
-    <t>صيدليه الوفاء البيطريه</t>
-  </si>
-  <si>
-    <t>مجمع التقوى الطبي</t>
-  </si>
-  <si>
-    <t>كوزمو دكتور القصيم Cosmo Doctor 9</t>
-  </si>
-  <si>
-    <t>صيدلية الدواءرقم 296</t>
-  </si>
-  <si>
-    <t>مجمع عيادات بدر الجزيرة</t>
-  </si>
-  <si>
-    <t>عيادات زيان لطب الأسنان - Zayan Dental Clinics</t>
-  </si>
-  <si>
-    <t>مجمع المميز ( المهيدب ) لطب الأسنان</t>
+    <t>مركز الامل للع...</t>
+  </si>
+  <si>
+    <t>عيادات لوسورير...</t>
+  </si>
+  <si>
+    <t>عين المس للنظا...</t>
+  </si>
+  <si>
+    <t>مغربي للبصريات...</t>
+  </si>
+  <si>
+    <t>صيدليه الوفاء ...</t>
+  </si>
+  <si>
+    <t>مجمع التقوى ال...</t>
+  </si>
+  <si>
+    <t>كوزمو دكتور ال...</t>
+  </si>
+  <si>
+    <t>صيدلية الدواءر...</t>
+  </si>
+  <si>
+    <t>مجمع عيادات بد...</t>
+  </si>
+  <si>
+    <t>عيادات زيان لط...</t>
+  </si>
+  <si>
+    <t>مجمع المميز ( ...</t>
   </si>
   <si>
     <t>Narcissus</t>
   </si>
   <si>
-    <t>عيادات فيفا دنت لطب وتقويم الأسنان</t>
-  </si>
-  <si>
-    <t>مركز دار الوفاء لرعاية المسنين</t>
-  </si>
-  <si>
-    <t>المهيدب لطب الأسنان , طريق ديراب _ فرع آرال</t>
-  </si>
-  <si>
-    <t>مجمع الأثير لطب الأسنان المتخصص</t>
-  </si>
-  <si>
-    <t>مجمع الحكيم الطبي</t>
+    <t>عيادات فيفا دن...</t>
+  </si>
+  <si>
+    <t>مركز دار الوفا...</t>
+  </si>
+  <si>
+    <t>المهيدب لطب ال...</t>
+  </si>
+  <si>
+    <t>مجمع الأثير لط...</t>
+  </si>
+  <si>
+    <t>مجمع الحكيم ال...</t>
   </si>
   <si>
     <t>Dakeel Clinic</t>
   </si>
   <si>
-    <t>Faris Al JAZIRAH DENTAL CLINIC</t>
-  </si>
-  <si>
-    <t>عيادات صفا مكة الطبية الجديدة(2)</t>
-  </si>
-  <si>
-    <t>الدكتورة سلمى البرقاوي</t>
-  </si>
-  <si>
-    <t>صيدلية بدار الصحة</t>
-  </si>
-  <si>
-    <t>دكتورة اية محروس</t>
-  </si>
-  <si>
-    <t>Alfa Laboratories | مختبرات الفا الطبية</t>
+    <t>Faris Al JAZIR...</t>
+  </si>
+  <si>
+    <t>عيادات صفا مكة...</t>
+  </si>
+  <si>
+    <t>الدكتورة سلمى ...</t>
+  </si>
+  <si>
+    <t>صيدلية بدار ال...</t>
+  </si>
+  <si>
+    <t>دكتورة اية محر...</t>
+  </si>
+  <si>
+    <t>Alfa Laborator...</t>
   </si>
   <si>
     <t>صيدلية الشافي</t>
   </si>
   <si>
-    <t>صيدلية سينات 21</t>
-  </si>
-  <si>
-    <t>مستشفى الصحة النفسية والرعاية المديدة</t>
-  </si>
-  <si>
-    <t>ام محمد لصبخة الراس</t>
-  </si>
-  <si>
-    <t>عيادات رنيم لطب وتقويم الاسنان</t>
+    <t>صيدلية سينات 2...</t>
+  </si>
+  <si>
+    <t>مستشفى الصحة ا...</t>
+  </si>
+  <si>
+    <t>ام محمد لصبخة ...</t>
+  </si>
+  <si>
+    <t>عيادات رنيم لط...</t>
   </si>
   <si>
     <t>MDLab</t>
   </si>
   <si>
-    <t>المديرية العامة للشؤون الصحية بمنطقة عسير</t>
-  </si>
-  <si>
-    <t>مجمع نور الرعاية الطبي</t>
-  </si>
-  <si>
-    <t>عيادة صحة الرجل ، مسالك بولية وضعف انتصاب و انجاب</t>
-  </si>
-  <si>
-    <t>عيادة الدكتور بندر الشهرى</t>
-  </si>
-  <si>
-    <t>رمق البستان للنظارات</t>
-  </si>
-  <si>
-    <t>كمبوند السعودى الالمانى</t>
-  </si>
-  <si>
-    <t>صيدلية فلاح خالد بن سعيد الهاجري للأدوية</t>
-  </si>
-  <si>
-    <t>مركز صحي مخطط 1</t>
-  </si>
-  <si>
-    <t>صيدلية دان (النهدي)</t>
-  </si>
-  <si>
-    <t>مركز حياة آمنة للإرشاد الأسري والنفسي</t>
-  </si>
-  <si>
-    <t>عيادة البكاري الطبية - فرع الهجرة</t>
-  </si>
-  <si>
-    <t>عيادات العقالي الطبي العام - فرع سلطانة</t>
-  </si>
-  <si>
-    <t>مجمع الحرمين الطبي - فرع الروضة</t>
-  </si>
-  <si>
-    <t>مؤسسة النايفية البيطرية</t>
-  </si>
-  <si>
-    <t>ادارة الطوارئ والازمات</t>
-  </si>
-  <si>
-    <t>صيدلية زايد الخير 2</t>
-  </si>
-  <si>
-    <t>مستشفى المانع بالدمام</t>
+    <t>المديرية العام...</t>
+  </si>
+  <si>
+    <t>مجمع نور الرعا...</t>
+  </si>
+  <si>
+    <t>عيادة صحة الرج...</t>
+  </si>
+  <si>
+    <t>عيادة الدكتور ...</t>
+  </si>
+  <si>
+    <t>رمق البستان لل...</t>
+  </si>
+  <si>
+    <t>كمبوند السعودى...</t>
+  </si>
+  <si>
+    <t>صيدلية فلاح خا...</t>
+  </si>
+  <si>
+    <t>مركز صحي مخطط ...</t>
+  </si>
+  <si>
+    <t>صيدلية دان (ال...</t>
+  </si>
+  <si>
+    <t>مركز حياة آمنة...</t>
+  </si>
+  <si>
+    <t>عيادة البكاري ...</t>
+  </si>
+  <si>
+    <t>عيادات العقالي...</t>
+  </si>
+  <si>
+    <t>مجمع الحرمين ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة النايفية...</t>
+  </si>
+  <si>
+    <t>ادارة الطوارئ ...</t>
+  </si>
+  <si>
+    <t>صيدلية زايد ال...</t>
+  </si>
+  <si>
+    <t>مستشفى المانع ...</t>
   </si>
   <si>
     <t>صيدلية المهنا</t>
   </si>
   <si>
-    <t>عيادة اسنان بلودان</t>
-  </si>
-  <si>
-    <t>al yasmin medical center</t>
+    <t>عيادة اسنان بل...</t>
+  </si>
+  <si>
+    <t>al yasmin medi...</t>
   </si>
   <si>
     <t>صيدلية O+ 19</t>
   </si>
   <si>
-    <t>مستشفى طب الاسنان الجامعي</t>
-  </si>
-  <si>
-    <t>مدينة السكنية لصحة الحدود الشمالية</t>
-  </si>
-  <si>
-    <t>مركز غرناطة للتغذية الطبي</t>
-  </si>
-  <si>
-    <t>المستقبل للمستلزمات الطبية</t>
-  </si>
-  <si>
-    <t>Mother and child clinic لقاح كوفيد ١٩ فايزر</t>
-  </si>
-  <si>
-    <t>مختبر العيادات الخارجية - مستشفى الملك فهد</t>
-  </si>
-  <si>
-    <t>الدكتورة \ شيماء أبوبكر مرزق أحمد طبيبة الجلدية والتجميل والليزر</t>
-  </si>
-  <si>
-    <t>عيادة كوزموديرم</t>
+    <t>مستشفى طب الاس...</t>
+  </si>
+  <si>
+    <t>مدينة السكنية ...</t>
+  </si>
+  <si>
+    <t>مركز غرناطة لل...</t>
+  </si>
+  <si>
+    <t>المستقبل للمست...</t>
+  </si>
+  <si>
+    <t>Mother and chi...</t>
+  </si>
+  <si>
+    <t>مختبر العيادات...</t>
+  </si>
+  <si>
+    <t>الدكتورة \ شيم...</t>
+  </si>
+  <si>
+    <t>عيادة كوزمودير...</t>
   </si>
   <si>
     <t>مركز طبي</t>
   </si>
   <si>
-    <t>عيادة جراحة التجميل</t>
+    <t>عيادة جراحة ال...</t>
   </si>
   <si>
     <t>مستشفى</t>
@@ -664,13 +361,13 @@
     <t>عيادة طبية</t>
   </si>
   <si>
-    <t>عيادة طب العيون</t>
+    <t>عيادة طب العيو...</t>
   </si>
   <si>
     <t>عيادة متخصصة</t>
   </si>
   <si>
-    <t>طبيب تجميل أسنان</t>
+    <t>طبيب تجميل أسن...</t>
   </si>
   <si>
     <t>صيدلية</t>
@@ -679,10 +376,10 @@
     <t>مستشفى بيطري</t>
   </si>
   <si>
-    <t>رعاية صحية في المنزل</t>
-  </si>
-  <si>
-    <t>طبيب الأسرة الممارس</t>
+    <t>رعاية صحية في ...</t>
+  </si>
+  <si>
+    <t>طبيب الأسرة ال...</t>
   </si>
   <si>
     <t>طبيب</t>
@@ -691,46 +388,46 @@
     <t>محل بصريات</t>
   </si>
   <si>
-    <t>الصيدلة البيطرية</t>
-  </si>
-  <si>
-    <t>عيادة للعناية بالبشرة</t>
+    <t>الصيدلة البيطر...</t>
+  </si>
+  <si>
+    <t>عيادة للعناية ...</t>
   </si>
   <si>
     <t>مستشفى عام</t>
   </si>
   <si>
-    <t>طبيب أمراض جلدية</t>
+    <t>طبيب أمراض جلد...</t>
   </si>
   <si>
     <t>مختبر طبي</t>
   </si>
   <si>
-    <t>خدمة الصحة النفسية</t>
+    <t>خدمة الصحة الن...</t>
   </si>
   <si>
     <t>ممارس طب بديل</t>
   </si>
   <si>
-    <t>مديرية شؤون الصحة العامة</t>
-  </si>
-  <si>
-    <t>عيادة الصحة النفسية</t>
+    <t>مديرية شؤون ال...</t>
+  </si>
+  <si>
+    <t>عيادة الصحة ال...</t>
   </si>
   <si>
     <t>مستشفى خاصة</t>
   </si>
   <si>
-    <t>خبير علاج يدوي</t>
+    <t>خبير علاج يدوي...</t>
   </si>
   <si>
     <t>مستشفى جامعي</t>
   </si>
   <si>
-    <t>متجر مستلزمات طبية</t>
-  </si>
-  <si>
-    <t>عيادة صحة المرأة</t>
+    <t>متجر مستلزمات ...</t>
+  </si>
+  <si>
+    <t>عيادة صحة المر...</t>
   </si>
   <si>
     <t>مختبر</t>
@@ -1033,304 +730,304 @@
     <t>48</t>
   </si>
   <si>
-    <t>23216 Khalid ben hisham، 6586 الفارسى، حي الشرفية، جدة 3264، جدة 23216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامام سعود بن فيصل، الملقا، الرياض 13521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, طريق الملك عبدالعزيز، الربيع، الرياض 13315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PM58+G5G، العليا، الرياض 12333، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5819 البراء بن مالك، 8716، أم العراد، الطائف 26511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بجانب مدخل فندق أوالف، برج قلب، الطائف 26541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق وادي وج، الفرعي، الفيصلية،، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حسان بن ثابت، الشهداء الشمالية، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2159 شهار، Hawaya، 8227، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الودق الماسي، حي نخب، ش حسان بن ثابت، مقابل مزايا مول، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الجامعة، الظهران 23819، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4055، الظهران 34452، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عبدالله بن العباس، الدوحة الجنوبية، الظهران 34451، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير أحمد، القصور، الظهران 34246، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4400 Abu bakr as Siddiq rd، القبلتين، المدينة المنورة 42351، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، العريض، المدينة المنورة، طريق الملك عبدالعزيز الفرعي، المدينة المنورة 42314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>DMAE7547, 3492 شارع السيح، حي الفتح, 7547, المدينة المنورة 42312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العباس بن العبادة، الرانوناء، المدينة المنورة 42392، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FJMV+62M، العريض، المدينة المنورة 42314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4664 طريق الملك عبدالله الفرعي، مهزور، المدينة المنورة 42319، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4383 جبار بن صخر، حي الخالدية، المدينة المنورة 42317، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8545 زيد بن المعلى الانصاري، البركة، المدينة المنورة 42332، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مهزور،، المدينة المنورة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الدويمة، المدينة المنورة 42315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق السلام، الجماوات، المدينة المنورة 42372، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6686 طريق الأمير عبدالمحسن بن عبدالعزيز، الجمعة، المدينة المنورة 42316، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المنارات، العريض، المدينة المنورة 42314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Al-Jameaat Road، ام خالد، المدينة المنورة 42373، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشرائع، مكة 24432، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>C6X2+2HV, شارع حسن حسنين, حي غليل, جدة 22413، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مركز صحي حي الشلهوب، الشلهوب، سكاكا 72341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7710 شارع ٢ (أ)، الخامسة 4433، القطيف‎ 32633، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8183 عبدالحميد بن ابي اويس، مهزور، المدينة المنورة 42319 2815، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>وادي الساحل، الرمال، الرياض 13263، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>صيدلية النهدي، النماص، بجوار، العزيزيةشارع، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5393، نجران 66297 8877، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3033 يحيى السديد، الخليج، RFKA6897, 6897, الرياض 13224، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حمزة بن عبدالمطلب، الحزم، الرياض 14964، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بقيع الغرغد، ممر مشاة، الحرم، المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، شارع جابر بن عبدالله، المؤتمرات، 69 نجود مول، الرياض 12712، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JG9R+3WV، الشفا،، الرياض 13783، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RIZA2599, 2599 الكسائي، 7784، حي الزهرة، RIZA2599, 2599 Al Kisai, 7784، حي الزهرة،, الرياض 12984، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6967، قروى، الطائف 26521 2934، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7007 شارع, الورود، 2657 شارع الأمير سلطان بن سلمان بن عبدالعزيز, الرياض 12251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F6HR+96Q، الجامعة، الثغر، جدة 22338، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4HJ9+78 STC، Jubail Industrial - Fanateer District - Al SHATI ROAD- Beside، الجبيل المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>XRMF+9C5، النهضة، أبو عريش 84717، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>EMAB8212 رقم المبنى:8212، الشارع الحادي عشر، السلام، الدمام 32416، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3626 طريق أبو بكر الصديق، حي النهضة، QBWE8019, 8019, بريدة 52389، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، طريق الدمام، المونسية، الرياض 13253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2998, 7069, القطيف‎ 32636، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Prince Mohamed Bin Abdulaziz Road, 3583 طريق الأمير محمد بن عبدالعزيز (شارع التحلية, الرياض 11461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مادبا، 7491، 2335 مادبا، بدر، الرياض 14716 7491، الرياض 14716، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4876 Al Imam Ali Ibn Abi Talib St Ar Rayyan Dammam 32256 7065 شارع الإمام علي بن أبي طالب، 7065، الريان، الدمام 32256، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العنابس، 42312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الخبيب، بريدة 52366، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2337 طريق ديراب، المروة، الرياض 14722، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>أم المؤمنين عائشة، مكة 24227، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4308 طريق الامير مساعد بن عبدالرحمن بن فيصل، العريجاء الغربية، الرياض 12975، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CH39+QC4، السليمانية، تبوك 47312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3429 نجد، 7080، ظهرة لبن, 7103، الرياض 13781، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Opp Bangladeshi Market، البطحاء، الفوطة، Al Buraqiyyah Street، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الأمير سلطان بن عبدالعزيز، السليمانية، الرياض 12221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7565، 3512 طريق عمر بن عبدالعزيز، حي الوسيطى، بريدة 52348 7565، 52348، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق ابي بكر الصديق، النرجس، الرياض 12342، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6966 معاذ بن جبل، العزيزية، الرياض 14511 3578، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأمير متعب بن عبدالعزيز، الربوة، الرياض 12834، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>XH8V+H8V، الملك عبدالله، بيشة 67713، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>OKSH4038، 4038 عبد الوهاب بن بخت، 8462، حي البديعة،، الخرج 16279،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامير سلطان بن عبدالعزيز، الخالدية، أبو عريش 45911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق العروبة الفرعي، العليا، الرياض 12333، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الربوة، 2712, 8037، أبها 62523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MMHF+4QQ، طريق ابو بكر الصديق، اليرموك، طريف‎ 91411، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عثمان بن عفان، ابن خلدون، الدمام 32253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الكورنيش الفرعي، الشاطئ، جدة 23412، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامير عبدالرحمن بن فيصل، اليمامة، الرياض 12675، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6379 Al-Zahra neighborhood, Sasaah Ibn Suan، الزهراء، جدة 23521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7815 الشارع التاسع والثلاثون, حي المدينة, بقيق 33261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخزامى، 3833، 9165، بيشة 67711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بطحاء قريش، مكة 24361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>النسيم،، مكة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العباس بن عبادة، القصواء، عكرمه، المدينة المنورة 42391، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق سلطانة. الفتح. المدينة المنورة. 42312.FHX. FHMW 24231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حاتم الطائي، الروضة، الرياض 13213، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>15، 2499، حي غرب النابية، EMSB8701، 8701، سيهات‎ 32472، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الدخل 2، مقابل حي، تبوك المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9MGJ+F85، الفضول، الهفوف‎ 36371، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع 16، عبدالله فؤاد، الدمام 32253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9، 2397، الواحة، 6364، القطيف‎ 32626، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 7871 ام القرى، الصفا، جدة 23456، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Kilo 14, العين العزيزية، جدة 22375، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مشرف،، 4734, 6856، الخرج 16271،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>95VQ+6VW، داخل جامعة الامام عبدالرحمن بن فيصل، الدمام المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7088، عرعر 73211 5674، 73211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2776، 8232 ابو طالب الطائف 26514 2776، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع ابن سينا، الملك خالد، الرس 58883، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Al Salaam Mall, الفيحاء، جدة 22251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الجامعة، 3285 Umm Kalthum Bint as Siddiq 9018, المدينة المنورة 42351، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>محايل عسير 66321، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سعود الفيصل، الروضة، جدة 23434، المملكة العربية السعودية</t>
+    <t>23216 Khalid b...</t>
+  </si>
+  <si>
+    <t>طريق الامام سع...</t>
+  </si>
+  <si>
+    <t>حي, طريق الملك...</t>
+  </si>
+  <si>
+    <t>PM58+G5G، العل...</t>
+  </si>
+  <si>
+    <t>5819 البراء بن...</t>
+  </si>
+  <si>
+    <t>بجانب مدخل فند...</t>
+  </si>
+  <si>
+    <t>طريق وادي وج، ...</t>
+  </si>
+  <si>
+    <t>حسان بن ثابت، ...</t>
+  </si>
+  <si>
+    <t>2159 شهار، Haw...</t>
+  </si>
+  <si>
+    <t>الودق الماسي، ...</t>
+  </si>
+  <si>
+    <t>حي الجامعة، ال...</t>
+  </si>
+  <si>
+    <t>4055، الظهران ...</t>
+  </si>
+  <si>
+    <t>شارع عبدالله ب...</t>
+  </si>
+  <si>
+    <t>شارع الأمير أح...</t>
+  </si>
+  <si>
+    <t>4400 Abu bakr ...</t>
+  </si>
+  <si>
+    <t>حي، العريض، ال...</t>
+  </si>
+  <si>
+    <t>DMAE7547, 3492...</t>
+  </si>
+  <si>
+    <t>العباس بن العب...</t>
+  </si>
+  <si>
+    <t>FJMV+62M، العر...</t>
+  </si>
+  <si>
+    <t>4664 طريق المل...</t>
+  </si>
+  <si>
+    <t>4383 جبار بن ص...</t>
+  </si>
+  <si>
+    <t>8545 زيد بن ال...</t>
+  </si>
+  <si>
+    <t>مهزور،، المدين...</t>
+  </si>
+  <si>
+    <t>الدويمة، المدي...</t>
+  </si>
+  <si>
+    <t>طريق السلام، ا...</t>
+  </si>
+  <si>
+    <t>6686 طريق الأم...</t>
+  </si>
+  <si>
+    <t>المنارات، العر...</t>
+  </si>
+  <si>
+    <t>Al-Jameaat Roa...</t>
+  </si>
+  <si>
+    <t>الشرائع، مكة 2...</t>
+  </si>
+  <si>
+    <t>C6X2+2HV, شارع...</t>
+  </si>
+  <si>
+    <t>مركز صحي حي ال...</t>
+  </si>
+  <si>
+    <t>7710 شارع ٢ (أ...</t>
+  </si>
+  <si>
+    <t>8183 عبدالحميد...</t>
+  </si>
+  <si>
+    <t>وادي الساحل، ا...</t>
+  </si>
+  <si>
+    <t>صيدلية النهدي،...</t>
+  </si>
+  <si>
+    <t>5393، نجران 66...</t>
+  </si>
+  <si>
+    <t>3033 يحيى السد...</t>
+  </si>
+  <si>
+    <t>حمزة بن عبدالم...</t>
+  </si>
+  <si>
+    <t>بقيع الغرغد، م...</t>
+  </si>
+  <si>
+    <t>حي، شارع جابر ...</t>
+  </si>
+  <si>
+    <t>JG9R+3WV، الشف...</t>
+  </si>
+  <si>
+    <t>RIZA2599, 2599...</t>
+  </si>
+  <si>
+    <t>6967، قروى، ال...</t>
+  </si>
+  <si>
+    <t>7007 شارع, الو...</t>
+  </si>
+  <si>
+    <t>F6HR+96Q، الجا...</t>
+  </si>
+  <si>
+    <t>4HJ9+78 STC، J...</t>
+  </si>
+  <si>
+    <t>XRMF+9C5، النه...</t>
+  </si>
+  <si>
+    <t>EMAB8212 رقم ا...</t>
+  </si>
+  <si>
+    <t>3626 طريق أبو ...</t>
+  </si>
+  <si>
+    <t>حي، طريق الدما...</t>
+  </si>
+  <si>
+    <t>2998, 7069, ال...</t>
+  </si>
+  <si>
+    <t>Prince Mohamed...</t>
+  </si>
+  <si>
+    <t>مادبا، 7491، 2...</t>
+  </si>
+  <si>
+    <t>4876 Al Imam A...</t>
+  </si>
+  <si>
+    <t>العنابس، 42312...</t>
+  </si>
+  <si>
+    <t>حي الخبيب، بري...</t>
+  </si>
+  <si>
+    <t>2337 طريق ديرا...</t>
+  </si>
+  <si>
+    <t>أم المؤمنين عا...</t>
+  </si>
+  <si>
+    <t>4308 طريق الام...</t>
+  </si>
+  <si>
+    <t>CH39+QC4، السل...</t>
+  </si>
+  <si>
+    <t>3429 نجد، 7080...</t>
+  </si>
+  <si>
+    <t>Opp Bangladesh...</t>
+  </si>
+  <si>
+    <t>طريق الأمير سل...</t>
+  </si>
+  <si>
+    <t>7565، 3512 طري...</t>
+  </si>
+  <si>
+    <t>طريق ابي بكر ا...</t>
+  </si>
+  <si>
+    <t>6966 معاذ بن ج...</t>
+  </si>
+  <si>
+    <t>شارع الأمير مت...</t>
+  </si>
+  <si>
+    <t>XH8V+H8V، المل...</t>
+  </si>
+  <si>
+    <t>OKSH4038، 4038...</t>
+  </si>
+  <si>
+    <t>الامير سلطان ب...</t>
+  </si>
+  <si>
+    <t>طريق العروبة ا...</t>
+  </si>
+  <si>
+    <t>الربوة، 2712, ...</t>
+  </si>
+  <si>
+    <t>MMHF+4QQ، طريق...</t>
+  </si>
+  <si>
+    <t>شارع عثمان بن ...</t>
+  </si>
+  <si>
+    <t>طريق الكورنيش ...</t>
+  </si>
+  <si>
+    <t>الامير عبدالرح...</t>
+  </si>
+  <si>
+    <t>6379 Al-Zahra ...</t>
+  </si>
+  <si>
+    <t>7815 الشارع ال...</t>
+  </si>
+  <si>
+    <t>الخزامى، 3833،...</t>
+  </si>
+  <si>
+    <t>بطحاء قريش، مك...</t>
+  </si>
+  <si>
+    <t>النسيم،، مكة ا...</t>
+  </si>
+  <si>
+    <t>العباس بن عباد...</t>
+  </si>
+  <si>
+    <t>طريق سلطانة. ا...</t>
+  </si>
+  <si>
+    <t>حاتم الطائي، ا...</t>
+  </si>
+  <si>
+    <t>15، 2499، حي غ...</t>
+  </si>
+  <si>
+    <t>الدخل 2، مقابل...</t>
+  </si>
+  <si>
+    <t>9MGJ+F85، الفض...</t>
+  </si>
+  <si>
+    <t>شارع 16، عبدال...</t>
+  </si>
+  <si>
+    <t>9، 2397، الواح...</t>
+  </si>
+  <si>
+    <t>حي, 7871 ام ال...</t>
+  </si>
+  <si>
+    <t>Kilo 14, العين...</t>
+  </si>
+  <si>
+    <t>مشرف،، 4734, 6...</t>
+  </si>
+  <si>
+    <t>95VQ+6VW، داخل...</t>
+  </si>
+  <si>
+    <t>7088، عرعر 732...</t>
+  </si>
+  <si>
+    <t>2776، 8232 ابو...</t>
+  </si>
+  <si>
+    <t>شارع ابن سينا،...</t>
+  </si>
+  <si>
+    <t>Al Salaam Mall...</t>
+  </si>
+  <si>
+    <t>الجامعة، 3285 ...</t>
+  </si>
+  <si>
+    <t>محايل عسير 663...</t>
+  </si>
+  <si>
+    <t>سعود الفيصل، ا...</t>
   </si>
   <si>
     <t>+966507226008</t>
@@ -1462,7 +1159,7 @@
     <t>+966920006332</t>
   </si>
   <si>
-    <t>+9668002444444</t>
+    <t>+9668002444444...</t>
   </si>
   <si>
     <t>+966138635000</t>
@@ -1579,157 +1276,139 @@
     <t>+966122611117</t>
   </si>
   <si>
-    <t>https://instagram.com/safwa.medical?igshid=NDk5N2NlZjQ=</t>
-  </si>
-  <si>
-    <t>https://www.doraclinic.sa/</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/YBSXKVOEVMD7E1</t>
-  </si>
-  <si>
-    <t>http://tadawis.com/</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/alsalammedic72</t>
-  </si>
-  <si>
-    <t>http://el-meswaak.web.app/user/offers/view/4gDQMdum3MfkHEJjikqI</t>
-  </si>
-  <si>
-    <t>https://sadeemalfajer.com/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSelDk3y9aLCVUc_kc-EsFxOqyiJ7AiT7LTUmQFbPQquuOUV7w/viewform</t>
-  </si>
-  <si>
-    <t>https://riyadaclinics.com/</t>
-  </si>
-  <si>
-    <t>http://www.faraby.net/</t>
-  </si>
-  <si>
-    <t>https://dohaclinics.sa/</t>
-  </si>
-  <si>
-    <t>https://ramclinics.net/</t>
-  </si>
-  <si>
-    <t>https://gnclinics.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://beat.com.sa/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/juwana_clinic?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://beoc.basaffar-gp.com/</t>
-  </si>
-  <si>
-    <t>https://ghasn.com/</t>
-  </si>
-  <si>
-    <t>http://gc-med.com/</t>
-  </si>
-  <si>
-    <t>https://daralsalamclinic.com/ar</t>
-  </si>
-  <si>
-    <t>https://whatsapp.com/channel/0029VaD2gv4Au3aRz6Ubob3Y</t>
-  </si>
-  <si>
-    <t>https://beauty-life-clinic.com/</t>
-  </si>
-  <si>
-    <t>https://madinah.saudigermanhealth.com/ar</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/meskpharmacy</t>
-  </si>
-  <si>
-    <t>https://goldencare-ksa.com/</t>
-  </si>
-  <si>
-    <t>http://www.moh.gov.sa/</t>
-  </si>
-  <si>
-    <t>http://modeviaclinics.com/</t>
-  </si>
-  <si>
-    <t>https://lesourireclinicsa.com/</t>
-  </si>
-  <si>
-    <t>https://magrabi.com/sa-en/</t>
-  </si>
-  <si>
-    <t>https://cosmodr.online/</t>
-  </si>
-  <si>
-    <t>https://www.al-dawaa.com/</t>
-  </si>
-  <si>
-    <t>https://zayandentalclinics.com/appointment</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/muhaidibads</t>
-  </si>
-  <si>
-    <t>https://atheerclinic.com/</t>
-  </si>
-  <si>
-    <t>http://www.farabiclinics.com/</t>
-  </si>
-  <si>
-    <t>https://www.safamakkah.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/drayamahrous2023?igshid=OGQ5ZDc2ODk2ZA==</t>
-  </si>
-  <si>
-    <t>https://alfalab.com.sa/</t>
-  </si>
-  <si>
-    <t>http://linktree.com/raneemclinics</t>
-  </si>
-  <si>
-    <t>http://www.mdlaboratories.com/</t>
-  </si>
-  <si>
-    <t>http://moh.gov.sa/</t>
-  </si>
-  <si>
-    <t>http://dayelclinic.com/</t>
-  </si>
-  <si>
-    <t>https://bandaralshehri.com/</t>
-  </si>
-  <si>
-    <t>https://www.skhajri.com/</t>
-  </si>
-  <si>
-    <t>https://www.nahdi.sa/</t>
-  </si>
-  <si>
-    <t>https://safelife.com.sa/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/alogalyomc/</t>
-  </si>
-  <si>
-    <t>https://ahmc.store/</t>
-  </si>
-  <si>
-    <t>http://www.almanahospital.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.almohanna.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.smpmedicalgroup.com/</t>
-  </si>
-  <si>
-    <t>http://www.cosmodermclinics.com/</t>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>https://www.do...</t>
+  </si>
+  <si>
+    <t>https://wa.me/...</t>
+  </si>
+  <si>
+    <t>http://tadawis...</t>
+  </si>
+  <si>
+    <t>https://linktr...</t>
+  </si>
+  <si>
+    <t>http://el-mesw...</t>
+  </si>
+  <si>
+    <t>https://sadeem...</t>
+  </si>
+  <si>
+    <t>https://docs.g...</t>
+  </si>
+  <si>
+    <t>https://riyada...</t>
+  </si>
+  <si>
+    <t>http://www.far...</t>
+  </si>
+  <si>
+    <t>https://dohacl...</t>
+  </si>
+  <si>
+    <t>https://ramcli...</t>
+  </si>
+  <si>
+    <t>https://gnclin...</t>
+  </si>
+  <si>
+    <t>https://beat.c...</t>
+  </si>
+  <si>
+    <t>https://beoc.b...</t>
+  </si>
+  <si>
+    <t>https://ghasn....</t>
+  </si>
+  <si>
+    <t>http://gc-med....</t>
+  </si>
+  <si>
+    <t>https://darals...</t>
+  </si>
+  <si>
+    <t>https://whatsa...</t>
+  </si>
+  <si>
+    <t>https://beauty...</t>
+  </si>
+  <si>
+    <t>https://madina...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>https://golden...</t>
+  </si>
+  <si>
+    <t>http://www.moh...</t>
+  </si>
+  <si>
+    <t>http://modevia...</t>
+  </si>
+  <si>
+    <t>https://lesour...</t>
+  </si>
+  <si>
+    <t>https://magrab...</t>
+  </si>
+  <si>
+    <t>https://cosmod...</t>
+  </si>
+  <si>
+    <t>https://www.al...</t>
+  </si>
+  <si>
+    <t>https://zayand...</t>
+  </si>
+  <si>
+    <t>https://atheer...</t>
+  </si>
+  <si>
+    <t>https://www.sa...</t>
+  </si>
+  <si>
+    <t>https://alfala...</t>
+  </si>
+  <si>
+    <t>http://linktre...</t>
+  </si>
+  <si>
+    <t>http://www.mdl...</t>
+  </si>
+  <si>
+    <t>http://moh.gov...</t>
+  </si>
+  <si>
+    <t>http://dayelcl...</t>
+  </si>
+  <si>
+    <t>https://bandar...</t>
+  </si>
+  <si>
+    <t>https://www.sk...</t>
+  </si>
+  <si>
+    <t>https://www.na...</t>
+  </si>
+  <si>
+    <t>https://safeli...</t>
+  </si>
+  <si>
+    <t>https://ahmc.s...</t>
+  </si>
+  <si>
+    <t>http://www.alm...</t>
+  </si>
+  <si>
+    <t>http://www.smp...</t>
+  </si>
+  <si>
+    <t>http://www.cos...</t>
   </si>
 </sst>
 </file>
@@ -2137,2367 +1816,2367 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>521</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>522</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>523</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
         <v>242</v>
       </c>
-      <c r="E6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" t="s">
-        <v>343</v>
-      </c>
       <c r="G6" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>524</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
-        <v>444</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>525</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>526</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>527</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>528</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>529</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>530</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
         <v>250</v>
       </c>
-      <c r="E14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" t="s">
-        <v>351</v>
-      </c>
       <c r="G14" t="s">
-        <v>451</v>
+        <v>350</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>531</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>532</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="G16" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>533</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="G17" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>534</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="G19" t="s">
-        <v>456</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="G20" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>535</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>537</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>461</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>464</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>136</v>
-      </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>466</v>
+        <v>365</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>542</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>467</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
-        <v>139</v>
-      </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>470</v>
+        <v>369</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>543</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>471</v>
+        <v>370</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>143</v>
-      </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>144</v>
-      </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
-        <v>153</v>
-      </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="G46" t="s">
-        <v>478</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
-        <v>154</v>
-      </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>479</v>
+        <v>378</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>548</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
         <v>155</v>
       </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" t="s">
-        <v>256</v>
-      </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="G49" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>157</v>
-      </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="G50" t="s">
-        <v>481</v>
+        <v>380</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>549</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
-        <v>158</v>
-      </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>550</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>159</v>
-      </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>160</v>
-      </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="G53" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>161</v>
-      </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="G54" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="G55" t="s">
-        <v>486</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="G56" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
       <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
         <v>212</v>
       </c>
-      <c r="D57" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57" t="s">
-        <v>313</v>
-      </c>
       <c r="F57" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="G57" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
-        <v>165</v>
-      </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="G58" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>552</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>166</v>
-      </c>
       <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
         <v>214</v>
       </c>
-      <c r="D59" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" t="s">
-        <v>315</v>
-      </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>491</v>
+        <v>390</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>554</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
-        <v>169</v>
-      </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>170</v>
-      </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>555</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
-        <v>171</v>
-      </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="F64" t="s">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="G64" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
       <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" t="s">
         <v>219</v>
       </c>
-      <c r="D65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" t="s">
-        <v>320</v>
-      </c>
       <c r="F65" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>173</v>
-      </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="G66" t="s">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>174</v>
-      </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="F67" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="G67" t="s">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>557</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
-        <v>175</v>
-      </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="G68" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
-        <v>176</v>
-      </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="G69" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
-        <v>177</v>
-      </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>407</v>
+        <v>306</v>
       </c>
       <c r="G71" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="F72" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="G72" t="s">
-        <v>499</v>
+        <v>398</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>558</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
-        <v>180</v>
-      </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="G73" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>559</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="G74" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>560</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
-        <v>182</v>
-      </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="G75" t="s">
-        <v>502</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="F76" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="G76" t="s">
-        <v>503</v>
+        <v>402</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>184</v>
-      </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="F77" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="G77" t="s">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>185</v>
-      </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E78" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" t="s">
         <v>313</v>
       </c>
-      <c r="F78" t="s">
-        <v>414</v>
-      </c>
       <c r="G78" t="s">
-        <v>505</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
-        <v>186</v>
-      </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>187</v>
-      </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="G80" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>563</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>188</v>
-      </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>189</v>
-      </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="G82" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="G83" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
-        <v>191</v>
-      </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="F84" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="G84" t="s">
-        <v>509</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
-        <v>192</v>
-      </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="F85" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="G85" t="s">
-        <v>510</v>
+        <v>409</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>566</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
-        <v>193</v>
-      </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="G86" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>567</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
-        <v>194</v>
-      </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="F87" t="s">
-        <v>423</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="F88" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="G88" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
-        <v>196</v>
-      </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="F89" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="G89" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
-        <v>197</v>
-      </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="F90" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="G90" t="s">
-        <v>514</v>
+        <v>413</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>568</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
-        <v>198</v>
-      </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E91" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="F91" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>569</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>199</v>
-      </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>200</v>
-      </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="G93" t="s">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>570</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>201</v>
-      </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="F94" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
-        <v>202</v>
-      </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
-        <v>203</v>
-      </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="F96" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
-        <v>204</v>
-      </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
       <c r="G97" t="s">
-        <v>516</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
-        <v>205</v>
-      </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="F98" t="s">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="G98" t="s">
-        <v>517</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
-        <v>206</v>
-      </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="E99" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
-        <v>207</v>
-      </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E100" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>436</v>
+        <v>335</v>
       </c>
       <c r="G100" t="s">
-        <v>518</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
-        <v>208</v>
-      </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="F101" t="s">
-        <v>437</v>
+        <v>336</v>
       </c>
       <c r="G101" t="s">
-        <v>519</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
         <v>108</v>
       </c>
-      <c r="B102" t="s">
-        <v>209</v>
-      </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="F102" t="s">
-        <v>438</v>
+        <v>337</v>
       </c>
       <c r="G102" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>571</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
